--- a/CustomerManage/＜テスト仕様書、不具合管理表、エビデンス＞/横溝担当/結合テスト仕様書・報告書 「顧客管理 30_38」.xlsx
+++ b/CustomerManage/＜テスト仕様書、不具合管理表、エビデンス＞/横溝担当/結合テスト仕様書・報告書 「顧客管理 30_38」.xlsx
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="126">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -2537,7 +2537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2611,6 +2611,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2630,15 +2639,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2841,13 +2841,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3241,7 +3250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H13:AL19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="U18" sqref="U18:X18"/>
     </sheetView>
   </sheetViews>
@@ -3479,7 +3488,7 @@
       <pane xSplit="41" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AP1" sqref="AP1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.95" customHeight="1"/>
@@ -3765,47 +3774,47 @@
       <c r="AO5" s="54"/>
     </row>
     <row r="6" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="29">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="31" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="31" t="s">
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="33"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="26"/>
       <c r="AE6" s="61"/>
       <c r="AF6" s="61"/>
       <c r="AG6" s="62"/>
@@ -3819,45 +3828,47 @@
       <c r="AO6" s="62"/>
     </row>
     <row r="7" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="29">
+      <c r="B7" s="32">
         <v>2</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="31" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="31" t="s">
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="33"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="26"/>
       <c r="AE7" s="61"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="62"/>
@@ -3979,47 +3990,47 @@
       <c r="AO10" s="54"/>
     </row>
     <row r="11" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B11" s="29">
+      <c r="B11" s="32">
         <v>3</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="31" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="31" t="s">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="33"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="26"/>
       <c r="AE11" s="61"/>
       <c r="AF11" s="61"/>
       <c r="AG11" s="62"/>
@@ -4033,45 +4044,47 @@
       <c r="AO11" s="62"/>
     </row>
     <row r="12" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B12" s="29">
+      <c r="B12" s="32">
         <v>4</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="31" t="s">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="31" t="s">
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="33"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="26"/>
       <c r="AE12" s="61"/>
       <c r="AF12" s="61"/>
       <c r="AG12" s="62"/>
@@ -4133,6 +4146,10 @@
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AI7:AJ7"/>
     <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
     <mergeCell ref="B9:AO9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
@@ -4143,8 +4160,6 @@
     <mergeCell ref="AE10:AF10"/>
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AA12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="AK10:AM10"/>
     <mergeCell ref="AN10:AO10"/>
     <mergeCell ref="B11:C11"/>
@@ -4155,18 +4170,16 @@
     <mergeCell ref="AA11:AD11"/>
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="AN11:AO11"/>
     <mergeCell ref="O12:Z12"/>
     <mergeCell ref="AG12:AH12"/>
     <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="AK12:AM12"/>
     <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4186,7 +4199,7 @@
       <pane xSplit="41" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AP1" sqref="AP1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI3" sqref="AI3:AO3"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.95" customHeight="1"/>
@@ -4472,47 +4485,47 @@
       <c r="AO5" s="54"/>
     </row>
     <row r="6" spans="2:41" ht="21" customHeight="1">
-      <c r="B6" s="29">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="31" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="31" t="s">
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="33"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="26"/>
       <c r="AE6" s="61"/>
       <c r="AF6" s="61"/>
       <c r="AG6" s="62"/>
@@ -4526,45 +4539,47 @@
       <c r="AO6" s="62"/>
     </row>
     <row r="7" spans="2:41" ht="17.25" customHeight="1">
-      <c r="B7" s="29">
+      <c r="B7" s="32">
         <v>2</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="31" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="31" t="s">
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="33"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="26"/>
       <c r="AE7" s="61"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="62"/>
@@ -4686,119 +4701,123 @@
       <c r="AO10" s="53"/>
     </row>
     <row r="11" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B11" s="29">
+      <c r="B11" s="32">
         <v>3</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="31" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="31" t="s">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="33"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="26"/>
       <c r="AE11" s="37"/>
       <c r="AF11" s="38"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="24"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="28"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="31"/>
     </row>
     <row r="12" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B12" s="29">
+      <c r="B12" s="32">
         <v>4</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="31" t="s">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="31" t="s">
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="33"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="26"/>
       <c r="AE12" s="37"/>
       <c r="AF12" s="38"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="27"/>
-      <c r="AO12" s="28"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="31"/>
     </row>
     <row r="13" spans="2:41" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B13" s="81">
         <v>5</v>
       </c>
       <c r="C13" s="82"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
+      <c r="D13" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
       <c r="G13" s="85" t="s">
         <v>37</v>
       </c>
@@ -4846,9 +4865,9 @@
     <row r="14" spans="2:41" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B14" s="83"/>
       <c r="C14" s="84"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="88"/>
       <c r="H14" s="89"/>
       <c r="I14" s="90"/>
@@ -4886,117 +4905,123 @@
       <c r="AO14" s="73"/>
     </row>
     <row r="15" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B15" s="29">
+      <c r="B15" s="32">
         <v>6</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="31" t="s">
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="31" t="s">
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="33"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="26"/>
       <c r="AE15" s="37"/>
       <c r="AF15" s="38"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="26"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="28"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="31"/>
     </row>
     <row r="16" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B16" s="29">
+      <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="31" t="s">
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="31" t="s">
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="33"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="26"/>
       <c r="AE16" s="37"/>
       <c r="AF16" s="38"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="27"/>
-      <c r="AO16" s="28"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="31"/>
     </row>
     <row r="17" spans="2:41" s="3" customFormat="1" ht="15.95" customHeight="1">
       <c r="B17" s="81">
         <v>8</v>
       </c>
       <c r="C17" s="82"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
+      <c r="D17" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
       <c r="G17" s="85" t="s">
         <v>38</v>
       </c>
@@ -5044,9 +5069,9 @@
     <row r="18" spans="2:41" s="3" customFormat="1" ht="15.95" customHeight="1">
       <c r="B18" s="83"/>
       <c r="C18" s="84"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="106"/>
       <c r="G18" s="88"/>
       <c r="H18" s="89"/>
       <c r="I18" s="90"/>
@@ -5095,20 +5120,20 @@
     <mergeCell ref="O13:T14"/>
     <mergeCell ref="O17:T18"/>
     <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:F18"/>
     <mergeCell ref="G17:I18"/>
     <mergeCell ref="J17:N18"/>
     <mergeCell ref="AA17:AD18"/>
     <mergeCell ref="AE17:AF18"/>
     <mergeCell ref="AG17:AH18"/>
     <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:F14"/>
     <mergeCell ref="G13:I14"/>
     <mergeCell ref="J13:N14"/>
     <mergeCell ref="AA13:AD14"/>
     <mergeCell ref="AE13:AF14"/>
     <mergeCell ref="AG13:AH14"/>
     <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="D13:F14"/>
+    <mergeCell ref="D17:F18"/>
     <mergeCell ref="AK10:AM10"/>
     <mergeCell ref="AN10:AO10"/>
     <mergeCell ref="B10:C10"/>
@@ -5177,6 +5202,10 @@
     <mergeCell ref="H2:AC2"/>
     <mergeCell ref="AD2:AH2"/>
     <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AN15:AO15"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
@@ -5206,10 +5235,6 @@
     <mergeCell ref="O12:Z12"/>
     <mergeCell ref="AA12:AD12"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AN15:AO15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5229,7 +5254,7 @@
       <pane xSplit="41" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AP1" sqref="AP1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI3" sqref="AI3:AO3"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.95" customHeight="1"/>
@@ -5515,47 +5540,47 @@
       <c r="AO5" s="54"/>
     </row>
     <row r="6" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="29">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="31" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="31" t="s">
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="33"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="26"/>
       <c r="AE6" s="61"/>
       <c r="AF6" s="61"/>
       <c r="AG6" s="62"/>
@@ -5569,45 +5594,47 @@
       <c r="AO6" s="62"/>
     </row>
     <row r="7" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="29">
+      <c r="B7" s="32">
         <v>2</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="31" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="31" t="s">
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="33"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="26"/>
       <c r="AE7" s="61"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="62"/>
@@ -5729,47 +5756,47 @@
       <c r="AO10" s="54"/>
     </row>
     <row r="11" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B11" s="29">
+      <c r="B11" s="32">
         <v>3</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="31" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="31" t="s">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="33"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="26"/>
       <c r="AE11" s="61"/>
       <c r="AF11" s="61"/>
       <c r="AG11" s="62"/>
@@ -5783,45 +5810,47 @@
       <c r="AO11" s="62"/>
     </row>
     <row r="12" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B12" s="29">
+      <c r="B12" s="32">
         <v>4</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="31" t="s">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="31" t="s">
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="33"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="26"/>
       <c r="AE12" s="61"/>
       <c r="AF12" s="61"/>
       <c r="AG12" s="62"/>
@@ -5872,13 +5901,13 @@
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="O6:Z6"/>
+    <mergeCell ref="AA7:AD7"/>
     <mergeCell ref="AN7:AO7"/>
     <mergeCell ref="AE6:AF6"/>
     <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="AK6:AM6"/>
     <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AA7:AD7"/>
     <mergeCell ref="AE7:AF7"/>
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AI7:AJ7"/>
@@ -5899,11 +5928,6 @@
     <mergeCell ref="AN10:AO10"/>
     <mergeCell ref="AA12:AD12"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:Z11"/>
     <mergeCell ref="AA11:AD11"/>
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="B12:C12"/>
@@ -5911,6 +5935,11 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:Z12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O11:Z11"/>
     <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="AK12:AM12"/>
     <mergeCell ref="AN12:AO12"/>
@@ -5936,7 +5965,7 @@
       <pane xSplit="41" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AP1" sqref="AP1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI3" sqref="AI3:AO3"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.95" customHeight="1"/>
@@ -6222,47 +6251,47 @@
       <c r="AO5" s="54"/>
     </row>
     <row r="6" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="29">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="31" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="31" t="s">
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="33"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="26"/>
       <c r="AE6" s="61"/>
       <c r="AF6" s="61"/>
       <c r="AG6" s="62"/>
@@ -6276,45 +6305,47 @@
       <c r="AO6" s="62"/>
     </row>
     <row r="7" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="29">
+      <c r="B7" s="32">
         <v>2</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="31" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="31" t="s">
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="33"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="26"/>
       <c r="AE7" s="61"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="62"/>
@@ -6436,47 +6467,47 @@
       <c r="AO10" s="54"/>
     </row>
     <row r="11" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B11" s="29">
+      <c r="B11" s="32">
         <v>3</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="31" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="31" t="s">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="33"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="26"/>
       <c r="AE11" s="61"/>
       <c r="AF11" s="61"/>
       <c r="AG11" s="62"/>
@@ -6490,45 +6521,47 @@
       <c r="AO11" s="62"/>
     </row>
     <row r="12" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B12" s="29">
+      <c r="B12" s="32">
         <v>4</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="31" t="s">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="31" t="s">
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="33"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="26"/>
       <c r="AE12" s="61"/>
       <c r="AF12" s="61"/>
       <c r="AG12" s="62"/>
@@ -6579,13 +6612,13 @@
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="O6:Z6"/>
+    <mergeCell ref="AA7:AD7"/>
     <mergeCell ref="AN7:AO7"/>
     <mergeCell ref="AE6:AF6"/>
     <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="AK6:AM6"/>
     <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AA7:AD7"/>
     <mergeCell ref="AE7:AF7"/>
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AI7:AJ7"/>
@@ -6606,11 +6639,6 @@
     <mergeCell ref="AN10:AO10"/>
     <mergeCell ref="AA12:AD12"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:Z11"/>
     <mergeCell ref="AA11:AD11"/>
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="B12:C12"/>
@@ -6618,6 +6646,11 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:Z12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O11:Z11"/>
     <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="AK12:AM12"/>
     <mergeCell ref="AN12:AO12"/>
@@ -6640,10 +6673,10 @@
   <dimension ref="B1:AO56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="41" ySplit="3" topLeftCell="AP55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="41" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AP1" sqref="AP1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI3" sqref="AI3:AO3"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.95" customHeight="1"/>
@@ -6930,47 +6963,47 @@
       <c r="AO5" s="54"/>
     </row>
     <row r="6" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="29">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="31" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="31" t="s">
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="33"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="26"/>
       <c r="AE6" s="61"/>
       <c r="AF6" s="61"/>
       <c r="AG6" s="62"/>
@@ -6984,45 +7017,47 @@
       <c r="AO6" s="62"/>
     </row>
     <row r="7" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="29">
+      <c r="B7" s="32">
         <v>3</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="31" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="31" t="s">
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="33"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="26"/>
       <c r="AE7" s="61"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="62"/>
@@ -7036,97 +7071,101 @@
       <c r="AO7" s="62"/>
     </row>
     <row r="8" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="29">
+      <c r="B8" s="32">
         <v>2</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="31" t="s">
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="31" t="s">
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="33"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="26"/>
       <c r="AE8" s="37"/>
       <c r="AF8" s="38"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="28"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="31"/>
     </row>
     <row r="9" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="29">
+      <c r="B9" s="32">
         <v>4</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="31" t="s">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="31" t="s">
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="33"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="26"/>
       <c r="AE9" s="61"/>
       <c r="AF9" s="61"/>
       <c r="AG9" s="62"/>
@@ -7248,47 +7287,47 @@
       <c r="AO12" s="54"/>
     </row>
     <row r="13" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B13" s="29">
+      <c r="B13" s="32">
         <v>5</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="31" t="s">
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="31" t="s">
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="33"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="26"/>
       <c r="AE13" s="61"/>
       <c r="AF13" s="61"/>
       <c r="AG13" s="62"/>
@@ -7302,45 +7341,47 @@
       <c r="AO13" s="62"/>
     </row>
     <row r="14" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B14" s="29">
+      <c r="B14" s="32">
         <v>6</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="31" t="s">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="31" t="s">
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="33"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="26"/>
       <c r="AE14" s="61"/>
       <c r="AF14" s="61"/>
       <c r="AG14" s="62"/>
@@ -7354,45 +7395,47 @@
       <c r="AO14" s="62"/>
     </row>
     <row r="15" spans="2:41" ht="15.75" customHeight="1">
-      <c r="B15" s="29">
+      <c r="B15" s="32">
         <v>7</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="31" t="s">
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="31" t="s">
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="33"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="26"/>
       <c r="AE15" s="61"/>
       <c r="AF15" s="61"/>
       <c r="AG15" s="62"/>
@@ -7406,45 +7449,47 @@
       <c r="AO15" s="62"/>
     </row>
     <row r="16" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B16" s="29">
+      <c r="B16" s="32">
         <v>8</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="31" t="s">
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="31" t="s">
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="33"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="26"/>
       <c r="AE16" s="61"/>
       <c r="AF16" s="61"/>
       <c r="AG16" s="62"/>
@@ -7458,45 +7503,47 @@
       <c r="AO16" s="62"/>
     </row>
     <row r="17" spans="2:41" ht="24.95" customHeight="1">
-      <c r="B17" s="29">
+      <c r="B17" s="32">
         <v>9</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="103"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="35"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="31" t="s">
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="31" t="s">
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="33"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="26"/>
       <c r="AE17" s="61"/>
       <c r="AF17" s="61"/>
       <c r="AG17" s="62"/>
@@ -7510,45 +7557,47 @@
       <c r="AO17" s="62"/>
     </row>
     <row r="18" spans="2:41" ht="24.95" customHeight="1">
-      <c r="B18" s="29">
+      <c r="B18" s="32">
         <v>10</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="31" t="s">
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="31" t="s">
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="33"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="26"/>
       <c r="AE18" s="61"/>
       <c r="AF18" s="61"/>
       <c r="AG18" s="62"/>
@@ -7562,45 +7611,47 @@
       <c r="AO18" s="62"/>
     </row>
     <row r="19" spans="2:41" ht="24.95" customHeight="1">
-      <c r="B19" s="29">
+      <c r="B19" s="32">
         <v>11</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="31" t="s">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="31" t="s">
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="33"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="26"/>
       <c r="AE19" s="61"/>
       <c r="AF19" s="61"/>
       <c r="AG19" s="62"/>
@@ -7614,45 +7665,47 @@
       <c r="AO19" s="62"/>
     </row>
     <row r="20" spans="2:41" ht="24.95" customHeight="1">
-      <c r="B20" s="29">
+      <c r="B20" s="32">
         <v>12</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="31" t="s">
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="31" t="s">
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="33"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="26"/>
       <c r="AE20" s="61"/>
       <c r="AF20" s="61"/>
       <c r="AG20" s="62"/>
@@ -7666,45 +7719,47 @@
       <c r="AO20" s="62"/>
     </row>
     <row r="21" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B21" s="29">
+      <c r="B21" s="32">
         <v>13</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="31" t="s">
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="31" t="s">
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="33"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="26"/>
       <c r="AE21" s="61"/>
       <c r="AF21" s="61"/>
       <c r="AG21" s="62"/>
@@ -7718,45 +7773,47 @@
       <c r="AO21" s="62"/>
     </row>
     <row r="22" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B22" s="29">
+      <c r="B22" s="32">
         <v>14</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H22" s="35"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="31" t="s">
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="31" t="s">
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="33"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="26"/>
       <c r="AE22" s="61"/>
       <c r="AF22" s="61"/>
       <c r="AG22" s="62"/>
@@ -7770,45 +7827,47 @@
       <c r="AO22" s="62"/>
     </row>
     <row r="23" spans="2:41" ht="27" customHeight="1">
-      <c r="B23" s="29">
+      <c r="B23" s="32">
         <v>15</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H23" s="35"/>
       <c r="I23" s="36"/>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="31" t="s">
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="31" t="s">
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="33"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="26"/>
       <c r="AE23" s="61"/>
       <c r="AF23" s="61"/>
       <c r="AG23" s="62"/>
@@ -7822,45 +7881,47 @@
       <c r="AO23" s="62"/>
     </row>
     <row r="24" spans="2:41" ht="27" customHeight="1">
-      <c r="B24" s="29">
+      <c r="B24" s="32">
         <v>16</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="31" t="s">
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="31" t="s">
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="33"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="26"/>
       <c r="AE24" s="61"/>
       <c r="AF24" s="61"/>
       <c r="AG24" s="62"/>
@@ -7874,45 +7935,47 @@
       <c r="AO24" s="62"/>
     </row>
     <row r="25" spans="2:41" ht="27" customHeight="1">
-      <c r="B25" s="29">
+      <c r="B25" s="32">
         <v>17</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H25" s="35"/>
       <c r="I25" s="36"/>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="31" t="s">
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="31" t="s">
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="33"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="26"/>
       <c r="AE25" s="61"/>
       <c r="AF25" s="61"/>
       <c r="AG25" s="62"/>
@@ -7926,45 +7989,47 @@
       <c r="AO25" s="62"/>
     </row>
     <row r="26" spans="2:41" ht="27" customHeight="1">
-      <c r="B26" s="29">
+      <c r="B26" s="32">
         <v>18</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="35"/>
       <c r="I26" s="36"/>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="31" t="s">
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="31" t="s">
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="33"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="26"/>
       <c r="AE26" s="61"/>
       <c r="AF26" s="61"/>
       <c r="AG26" s="62"/>
@@ -7978,45 +8043,47 @@
       <c r="AO26" s="62"/>
     </row>
     <row r="27" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="29">
+      <c r="B27" s="32">
         <v>19</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H27" s="35"/>
       <c r="I27" s="36"/>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="31" t="s">
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="31" t="s">
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="33"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="26"/>
       <c r="AE27" s="61"/>
       <c r="AF27" s="61"/>
       <c r="AG27" s="62"/>
@@ -8030,45 +8097,47 @@
       <c r="AO27" s="62"/>
     </row>
     <row r="28" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="29">
+      <c r="B28" s="32">
         <v>20</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H28" s="35"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="31" t="s">
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="31" t="s">
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="33"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="26"/>
       <c r="AE28" s="61"/>
       <c r="AF28" s="61"/>
       <c r="AG28" s="62"/>
@@ -8082,45 +8151,47 @@
       <c r="AO28" s="62"/>
     </row>
     <row r="29" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="29">
+      <c r="B29" s="32">
         <v>21</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H29" s="35"/>
       <c r="I29" s="36"/>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="31" t="s">
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="31" t="s">
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="33"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="26"/>
       <c r="AE29" s="61"/>
       <c r="AF29" s="61"/>
       <c r="AG29" s="62"/>
@@ -8134,45 +8205,47 @@
       <c r="AO29" s="62"/>
     </row>
     <row r="30" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="29">
+      <c r="B30" s="32">
         <v>22</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="31" t="s">
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="31" t="s">
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="33"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="26"/>
       <c r="AE30" s="61"/>
       <c r="AF30" s="61"/>
       <c r="AG30" s="62"/>
@@ -8186,45 +8259,47 @@
       <c r="AO30" s="62"/>
     </row>
     <row r="31" spans="2:41" ht="27" customHeight="1">
-      <c r="B31" s="29">
+      <c r="B31" s="32">
         <v>23</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H31" s="35"/>
       <c r="I31" s="36"/>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="31" t="s">
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="31" t="s">
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="33"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="26"/>
       <c r="AE31" s="61"/>
       <c r="AF31" s="61"/>
       <c r="AG31" s="62"/>
@@ -8238,45 +8313,47 @@
       <c r="AO31" s="62"/>
     </row>
     <row r="32" spans="2:41" ht="27" customHeight="1">
-      <c r="B32" s="29">
+      <c r="B32" s="32">
         <v>24</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H32" s="35"/>
       <c r="I32" s="36"/>
-      <c r="J32" s="31" t="s">
+      <c r="J32" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="31" t="s">
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="31" t="s">
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="33"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="26"/>
       <c r="AE32" s="61"/>
       <c r="AF32" s="61"/>
       <c r="AG32" s="62"/>
@@ -8290,45 +8367,47 @@
       <c r="AO32" s="62"/>
     </row>
     <row r="33" spans="2:41" ht="27" customHeight="1">
-      <c r="B33" s="29">
+      <c r="B33" s="32">
         <v>25</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H33" s="35"/>
       <c r="I33" s="36"/>
-      <c r="J33" s="31" t="s">
+      <c r="J33" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="31" t="s">
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="31" t="s">
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="33"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="26"/>
       <c r="AE33" s="61"/>
       <c r="AF33" s="61"/>
       <c r="AG33" s="62"/>
@@ -8342,45 +8421,47 @@
       <c r="AO33" s="62"/>
     </row>
     <row r="34" spans="2:41" ht="27" customHeight="1">
-      <c r="B34" s="29">
+      <c r="B34" s="32">
         <v>26</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H34" s="35"/>
       <c r="I34" s="36"/>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="31" t="s">
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="31" t="s">
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="33"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="26"/>
       <c r="AE34" s="61"/>
       <c r="AF34" s="61"/>
       <c r="AG34" s="62"/>
@@ -8394,45 +8475,47 @@
       <c r="AO34" s="62"/>
     </row>
     <row r="35" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B35" s="29">
+      <c r="B35" s="32">
         <v>27</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
       <c r="G35" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="35"/>
       <c r="I35" s="36"/>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="31" t="s">
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="31" t="s">
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="33"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="26"/>
       <c r="AE35" s="61"/>
       <c r="AF35" s="61"/>
       <c r="AG35" s="62"/>
@@ -8446,45 +8529,47 @@
       <c r="AO35" s="62"/>
     </row>
     <row r="36" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B36" s="29">
+      <c r="B36" s="32">
         <v>28</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
       <c r="G36" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="35"/>
       <c r="I36" s="36"/>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="31" t="s">
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="31" t="s">
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="33"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="26"/>
       <c r="AE36" s="61"/>
       <c r="AF36" s="61"/>
       <c r="AG36" s="62"/>
@@ -8498,45 +8583,47 @@
       <c r="AO36" s="62"/>
     </row>
     <row r="37" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B37" s="29">
+      <c r="B37" s="32">
         <v>29</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
       <c r="G37" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="35"/>
       <c r="I37" s="36"/>
-      <c r="J37" s="31" t="s">
+      <c r="J37" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="31" t="s">
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="31" t="s">
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="33"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="26"/>
       <c r="AE37" s="61"/>
       <c r="AF37" s="61"/>
       <c r="AG37" s="62"/>
@@ -8550,45 +8637,47 @@
       <c r="AO37" s="62"/>
     </row>
     <row r="38" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B38" s="29">
+      <c r="B38" s="32">
         <v>30</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
       <c r="G38" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="35"/>
       <c r="I38" s="36"/>
-      <c r="J38" s="31" t="s">
+      <c r="J38" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="31" t="s">
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="31" t="s">
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="33"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="26"/>
       <c r="AE38" s="61"/>
       <c r="AF38" s="61"/>
       <c r="AG38" s="62"/>
@@ -8602,45 +8691,47 @@
       <c r="AO38" s="62"/>
     </row>
     <row r="39" spans="2:41" ht="24.95" customHeight="1">
-      <c r="B39" s="29">
+      <c r="B39" s="32">
         <v>31</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
       <c r="G39" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="35"/>
       <c r="I39" s="36"/>
-      <c r="J39" s="31" t="s">
+      <c r="J39" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="31" t="s">
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="31" t="s">
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="33"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="26"/>
       <c r="AE39" s="61"/>
       <c r="AF39" s="61"/>
       <c r="AG39" s="62"/>
@@ -8654,45 +8745,47 @@
       <c r="AO39" s="62"/>
     </row>
     <row r="40" spans="2:41" ht="24.95" customHeight="1">
-      <c r="B40" s="29">
+      <c r="B40" s="32">
         <v>32</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
       <c r="G40" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H40" s="35"/>
       <c r="I40" s="36"/>
-      <c r="J40" s="31" t="s">
+      <c r="J40" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="31" t="s">
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="31" t="s">
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="33"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="26"/>
       <c r="AE40" s="61"/>
       <c r="AF40" s="61"/>
       <c r="AG40" s="62"/>
@@ -8706,45 +8799,47 @@
       <c r="AO40" s="62"/>
     </row>
     <row r="41" spans="2:41" ht="24.95" customHeight="1">
-      <c r="B41" s="29">
+      <c r="B41" s="32">
         <v>33</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26"/>
       <c r="G41" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="36"/>
-      <c r="J41" s="31" t="s">
+      <c r="J41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="31" t="s">
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="31" t="s">
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="33"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="26"/>
       <c r="AE41" s="61"/>
       <c r="AF41" s="61"/>
       <c r="AG41" s="62"/>
@@ -8758,45 +8853,47 @@
       <c r="AO41" s="62"/>
     </row>
     <row r="42" spans="2:41" ht="24.95" customHeight="1">
-      <c r="B42" s="29">
+      <c r="B42" s="32">
         <v>34</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H42" s="35"/>
       <c r="I42" s="36"/>
-      <c r="J42" s="31" t="s">
+      <c r="J42" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="31" t="s">
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="31" t="s">
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="33"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="26"/>
       <c r="AE42" s="61"/>
       <c r="AF42" s="61"/>
       <c r="AG42" s="62"/>
@@ -8810,45 +8907,47 @@
       <c r="AO42" s="62"/>
     </row>
     <row r="43" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B43" s="29">
+      <c r="B43" s="32">
         <v>35</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
       <c r="G43" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H43" s="35"/>
       <c r="I43" s="36"/>
-      <c r="J43" s="31" t="s">
+      <c r="J43" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="31" t="s">
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="31" t="s">
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="AB43" s="32"/>
-      <c r="AC43" s="32"/>
-      <c r="AD43" s="33"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="26"/>
       <c r="AE43" s="61"/>
       <c r="AF43" s="61"/>
       <c r="AG43" s="62"/>
@@ -8862,45 +8961,47 @@
       <c r="AO43" s="62"/>
     </row>
     <row r="44" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B44" s="29">
+      <c r="B44" s="32">
         <v>36</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H44" s="35"/>
       <c r="I44" s="36"/>
-      <c r="J44" s="31" t="s">
+      <c r="J44" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="31" t="s">
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
-      <c r="V44" s="32"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="31" t="s">
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="AB44" s="32"/>
-      <c r="AC44" s="32"/>
-      <c r="AD44" s="33"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="26"/>
       <c r="AE44" s="61"/>
       <c r="AF44" s="61"/>
       <c r="AG44" s="62"/>
@@ -8914,45 +9015,47 @@
       <c r="AO44" s="62"/>
     </row>
     <row r="45" spans="2:41" ht="27" customHeight="1">
-      <c r="B45" s="29">
+      <c r="B45" s="32">
         <v>37</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H45" s="35"/>
       <c r="I45" s="36"/>
-      <c r="J45" s="31" t="s">
+      <c r="J45" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="31" t="s">
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="31" t="s">
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AB45" s="32"/>
-      <c r="AC45" s="32"/>
-      <c r="AD45" s="33"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="26"/>
       <c r="AE45" s="61"/>
       <c r="AF45" s="61"/>
       <c r="AG45" s="62"/>
@@ -8966,45 +9069,47 @@
       <c r="AO45" s="62"/>
     </row>
     <row r="46" spans="2:41" ht="27" customHeight="1">
-      <c r="B46" s="29">
+      <c r="B46" s="32">
         <v>38</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="26"/>
       <c r="G46" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H46" s="35"/>
       <c r="I46" s="36"/>
-      <c r="J46" s="31" t="s">
+      <c r="J46" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="31" t="s">
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="32"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="31" t="s">
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="26"/>
+      <c r="AA46" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AB46" s="32"/>
-      <c r="AC46" s="32"/>
-      <c r="AD46" s="33"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="26"/>
       <c r="AE46" s="61"/>
       <c r="AF46" s="61"/>
       <c r="AG46" s="62"/>
@@ -9018,45 +9123,47 @@
       <c r="AO46" s="62"/>
     </row>
     <row r="47" spans="2:41" ht="27" customHeight="1">
-      <c r="B47" s="29">
+      <c r="B47" s="32">
         <v>39</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26"/>
       <c r="G47" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="36"/>
-      <c r="J47" s="31" t="s">
+      <c r="J47" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="31" t="s">
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="31" t="s">
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="26"/>
+      <c r="AA47" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="33"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="26"/>
       <c r="AE47" s="61"/>
       <c r="AF47" s="61"/>
       <c r="AG47" s="62"/>
@@ -9070,45 +9177,47 @@
       <c r="AO47" s="62"/>
     </row>
     <row r="48" spans="2:41" ht="27" customHeight="1">
-      <c r="B48" s="29">
+      <c r="B48" s="32">
         <v>40</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26"/>
       <c r="G48" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="35"/>
       <c r="I48" s="36"/>
-      <c r="J48" s="31" t="s">
+      <c r="J48" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="31" t="s">
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="32"/>
-      <c r="W48" s="32"/>
-      <c r="X48" s="32"/>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="31" t="s">
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="26"/>
+      <c r="AA48" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="AB48" s="32"/>
-      <c r="AC48" s="32"/>
-      <c r="AD48" s="33"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="26"/>
       <c r="AE48" s="61"/>
       <c r="AF48" s="61"/>
       <c r="AG48" s="62"/>
@@ -9122,45 +9231,47 @@
       <c r="AO48" s="62"/>
     </row>
     <row r="49" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="29">
+      <c r="B49" s="32">
         <v>41</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="26"/>
       <c r="G49" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="35"/>
       <c r="I49" s="36"/>
-      <c r="J49" s="31" t="s">
+      <c r="J49" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="31" t="s">
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="32"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="31" t="s">
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="26"/>
+      <c r="AA49" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AB49" s="32"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="33"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="25"/>
+      <c r="AD49" s="26"/>
       <c r="AE49" s="61"/>
       <c r="AF49" s="61"/>
       <c r="AG49" s="62"/>
@@ -9174,45 +9285,47 @@
       <c r="AO49" s="62"/>
     </row>
     <row r="50" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="29">
+      <c r="B50" s="32">
         <v>42</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26"/>
       <c r="G50" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H50" s="35"/>
       <c r="I50" s="36"/>
-      <c r="J50" s="31" t="s">
+      <c r="J50" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="31" t="s">
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="31" t="s">
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="26"/>
+      <c r="AA50" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AB50" s="32"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="33"/>
+      <c r="AB50" s="25"/>
+      <c r="AC50" s="25"/>
+      <c r="AD50" s="26"/>
       <c r="AE50" s="61"/>
       <c r="AF50" s="61"/>
       <c r="AG50" s="62"/>
@@ -9226,45 +9339,47 @@
       <c r="AO50" s="62"/>
     </row>
     <row r="51" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="29">
+      <c r="B51" s="32">
         <v>43</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
       <c r="G51" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H51" s="35"/>
       <c r="I51" s="36"/>
-      <c r="J51" s="31" t="s">
+      <c r="J51" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="31" t="s">
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="31" t="s">
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AB51" s="32"/>
-      <c r="AC51" s="32"/>
-      <c r="AD51" s="33"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="26"/>
       <c r="AE51" s="61"/>
       <c r="AF51" s="61"/>
       <c r="AG51" s="62"/>
@@ -9278,45 +9393,47 @@
       <c r="AO51" s="62"/>
     </row>
     <row r="52" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="29">
+      <c r="B52" s="32">
         <v>44</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26"/>
       <c r="G52" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H52" s="35"/>
       <c r="I52" s="36"/>
-      <c r="J52" s="31" t="s">
+      <c r="J52" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="31" t="s">
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="32"/>
-      <c r="V52" s="32"/>
-      <c r="W52" s="32"/>
-      <c r="X52" s="32"/>
-      <c r="Y52" s="32"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="31" t="s">
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="26"/>
+      <c r="AA52" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AB52" s="32"/>
-      <c r="AC52" s="32"/>
-      <c r="AD52" s="33"/>
+      <c r="AB52" s="25"/>
+      <c r="AC52" s="25"/>
+      <c r="AD52" s="26"/>
       <c r="AE52" s="61"/>
       <c r="AF52" s="61"/>
       <c r="AG52" s="62"/>
@@ -9330,45 +9447,47 @@
       <c r="AO52" s="62"/>
     </row>
     <row r="53" spans="2:41" ht="27" customHeight="1">
-      <c r="B53" s="29">
+      <c r="B53" s="32">
         <v>45</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26"/>
       <c r="G53" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H53" s="35"/>
       <c r="I53" s="36"/>
-      <c r="J53" s="31" t="s">
+      <c r="J53" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="31" t="s">
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="32"/>
-      <c r="W53" s="32"/>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="31" t="s">
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="26"/>
+      <c r="AA53" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AB53" s="32"/>
-      <c r="AC53" s="32"/>
-      <c r="AD53" s="33"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25"/>
+      <c r="AD53" s="26"/>
       <c r="AE53" s="61"/>
       <c r="AF53" s="61"/>
       <c r="AG53" s="62"/>
@@ -9382,45 +9501,47 @@
       <c r="AO53" s="62"/>
     </row>
     <row r="54" spans="2:41" ht="27" customHeight="1">
-      <c r="B54" s="29">
+      <c r="B54" s="32">
         <v>46</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26"/>
       <c r="G54" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H54" s="35"/>
       <c r="I54" s="36"/>
-      <c r="J54" s="31" t="s">
+      <c r="J54" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="31" t="s">
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="32"/>
-      <c r="V54" s="32"/>
-      <c r="W54" s="32"/>
-      <c r="X54" s="32"/>
-      <c r="Y54" s="32"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="31" t="s">
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="26"/>
+      <c r="AA54" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AB54" s="32"/>
-      <c r="AC54" s="32"/>
-      <c r="AD54" s="33"/>
+      <c r="AB54" s="25"/>
+      <c r="AC54" s="25"/>
+      <c r="AD54" s="26"/>
       <c r="AE54" s="61"/>
       <c r="AF54" s="61"/>
       <c r="AG54" s="62"/>
@@ -9434,45 +9555,47 @@
       <c r="AO54" s="62"/>
     </row>
     <row r="55" spans="2:41" ht="27" customHeight="1">
-      <c r="B55" s="29">
+      <c r="B55" s="32">
         <v>47</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26"/>
       <c r="G55" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H55" s="35"/>
       <c r="I55" s="36"/>
-      <c r="J55" s="31" t="s">
+      <c r="J55" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="31" t="s">
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="32"/>
-      <c r="V55" s="32"/>
-      <c r="W55" s="32"/>
-      <c r="X55" s="32"/>
-      <c r="Y55" s="32"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="31" t="s">
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="26"/>
+      <c r="AA55" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AB55" s="32"/>
-      <c r="AC55" s="32"/>
-      <c r="AD55" s="33"/>
+      <c r="AB55" s="25"/>
+      <c r="AC55" s="25"/>
+      <c r="AD55" s="26"/>
       <c r="AE55" s="61"/>
       <c r="AF55" s="61"/>
       <c r="AG55" s="62"/>
@@ -9486,45 +9609,47 @@
       <c r="AO55" s="62"/>
     </row>
     <row r="56" spans="2:41" ht="27" customHeight="1">
-      <c r="B56" s="29">
+      <c r="B56" s="32">
         <v>48</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26"/>
       <c r="G56" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H56" s="35"/>
       <c r="I56" s="36"/>
-      <c r="J56" s="31" t="s">
+      <c r="J56" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="31" t="s">
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="32"/>
-      <c r="W56" s="32"/>
-      <c r="X56" s="32"/>
-      <c r="Y56" s="32"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="31" t="s">
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AB56" s="32"/>
-      <c r="AC56" s="32"/>
-      <c r="AD56" s="33"/>
+      <c r="AB56" s="25"/>
+      <c r="AC56" s="25"/>
+      <c r="AD56" s="26"/>
       <c r="AE56" s="61"/>
       <c r="AF56" s="61"/>
       <c r="AG56" s="62"/>
@@ -9539,7 +9664,6 @@
     </row>
   </sheetData>
   <mergeCells count="565">
-    <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:N20"/>
     <mergeCell ref="O20:Z20"/>
     <mergeCell ref="AA20:AD20"/>
@@ -9555,7 +9679,14 @@
     <mergeCell ref="AE42:AF42"/>
     <mergeCell ref="AG42:AH42"/>
     <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="O40:Z40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
     <mergeCell ref="AN19:AO19"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:F41"/>
@@ -9579,15 +9710,7 @@
     <mergeCell ref="AK20:AM20"/>
     <mergeCell ref="AN20:AO20"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="O40:Z40"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="G20:I20"/>
     <mergeCell ref="AK17:AM17"/>
     <mergeCell ref="AN17:AO17"/>
     <mergeCell ref="D39:F39"/>
@@ -9611,6 +9734,7 @@
     <mergeCell ref="AK18:AM18"/>
     <mergeCell ref="AN18:AO18"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="AK19:AM19"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="AK56:AM56"/>
     <mergeCell ref="AN56:AO56"/>
@@ -9626,6 +9750,16 @@
     <mergeCell ref="AN40:AO40"/>
     <mergeCell ref="AK42:AM42"/>
     <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AK55:AM55"/>
+    <mergeCell ref="AN55:AO55"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:Z33"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI54:AJ54"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="G56:I56"/>
@@ -9635,15 +9769,7 @@
     <mergeCell ref="AE56:AF56"/>
     <mergeCell ref="AG56:AH56"/>
     <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK55:AM55"/>
-    <mergeCell ref="AN55:AO55"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:Z33"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AK33:AM33"/>
     <mergeCell ref="AI33:AJ33"/>
     <mergeCell ref="AK34:AM34"/>
     <mergeCell ref="AN34:AO34"/>
@@ -9658,15 +9784,6 @@
     <mergeCell ref="AI55:AJ55"/>
     <mergeCell ref="AK54:AM54"/>
     <mergeCell ref="AN54:AO54"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:Z32"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK33:AM33"/>
     <mergeCell ref="AN33:AO33"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:F54"/>
@@ -9676,7 +9793,6 @@
     <mergeCell ref="AA54:AD54"/>
     <mergeCell ref="AE54:AF54"/>
     <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
     <mergeCell ref="AK53:AM53"/>
     <mergeCell ref="AN53:AO53"/>
     <mergeCell ref="D31:F31"/>
@@ -9689,6 +9805,18 @@
     <mergeCell ref="AI31:AJ31"/>
     <mergeCell ref="AK32:AM32"/>
     <mergeCell ref="AN32:AO32"/>
+    <mergeCell ref="AK48:AM48"/>
+    <mergeCell ref="AN48:AO48"/>
+    <mergeCell ref="AK44:AM44"/>
+    <mergeCell ref="AN44:AO44"/>
+    <mergeCell ref="AK47:AM47"/>
+    <mergeCell ref="AN47:AO47"/>
+    <mergeCell ref="AN46:AO46"/>
+    <mergeCell ref="AK45:AM45"/>
+    <mergeCell ref="AN45:AO45"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="J35:N35"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:F53"/>
     <mergeCell ref="G53:I53"/>
@@ -9707,6 +9835,12 @@
     <mergeCell ref="AI22:AJ22"/>
     <mergeCell ref="AK31:AM31"/>
     <mergeCell ref="AN31:AO31"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="AN25:AO25"/>
+    <mergeCell ref="AK23:AM23"/>
+    <mergeCell ref="AN23:AO23"/>
+    <mergeCell ref="AN24:AO24"/>
+    <mergeCell ref="AN28:AO28"/>
     <mergeCell ref="AK21:AM21"/>
     <mergeCell ref="AN21:AO21"/>
     <mergeCell ref="B43:C43"/>
@@ -9731,8 +9865,13 @@
     <mergeCell ref="AK22:AM22"/>
     <mergeCell ref="AN22:AO22"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="AK48:AM48"/>
-    <mergeCell ref="AN48:AO48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="O48:Z48"/>
+    <mergeCell ref="AA48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J26:N26"/>
@@ -9749,19 +9888,17 @@
     <mergeCell ref="AE44:AF44"/>
     <mergeCell ref="AG44:AH44"/>
     <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AM44"/>
-    <mergeCell ref="AN44:AO44"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="O48:Z48"/>
-    <mergeCell ref="AA48:AD48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK47:AM47"/>
-    <mergeCell ref="AN47:AO47"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="O47:Z47"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AI47:AJ47"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="J25:N25"/>
@@ -9771,17 +9908,12 @@
     <mergeCell ref="AG25:AH25"/>
     <mergeCell ref="AI25:AJ25"/>
     <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="O47:Z47"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AN46:AO46"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="O36:Z36"/>
+    <mergeCell ref="AA36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AI46:AJ46"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="J24:N24"/>
@@ -9790,30 +9922,17 @@
     <mergeCell ref="AE24:AF24"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AN25:AO25"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:N46"/>
-    <mergeCell ref="O46:Z46"/>
-    <mergeCell ref="AA46:AD46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK23:AM23"/>
-    <mergeCell ref="AN23:AO23"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:N45"/>
-    <mergeCell ref="O45:Z45"/>
-    <mergeCell ref="AA45:AD45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AM45"/>
-    <mergeCell ref="AN45:AO45"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:Z32"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AI40:AJ40"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:N23"/>
@@ -9823,17 +9942,6 @@
     <mergeCell ref="AG23:AH23"/>
     <mergeCell ref="AI23:AJ23"/>
     <mergeCell ref="AK24:AM24"/>
-    <mergeCell ref="AN24:AO24"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="O38:Z38"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
     <mergeCell ref="AK15:AM15"/>
     <mergeCell ref="AN15:AO15"/>
     <mergeCell ref="D37:F37"/>
@@ -9858,15 +9966,6 @@
     <mergeCell ref="AN16:AO16"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="O36:Z36"/>
-    <mergeCell ref="AA36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AM36"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="N1:T1"/>
@@ -9943,16 +10042,17 @@
     <mergeCell ref="AA13:AD13"/>
     <mergeCell ref="AE13:AF13"/>
     <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:Z35"/>
-    <mergeCell ref="AA35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
     <mergeCell ref="O12:Z12"/>
     <mergeCell ref="AA12:AD12"/>
     <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="AG12:AH12"/>
     <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="O29:Z29"/>
+    <mergeCell ref="AA29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="O16:Z16"/>
     <mergeCell ref="AA16:AD16"/>
@@ -9998,13 +10098,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="AN29:AO29"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
     <mergeCell ref="AA27:AD27"/>
     <mergeCell ref="AE27:AF27"/>
     <mergeCell ref="AG27:AH27"/>
@@ -10016,30 +10109,30 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="J27:N27"/>
     <mergeCell ref="O27:Z27"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="AN29:AO29"/>
     <mergeCell ref="AG35:AH35"/>
     <mergeCell ref="AI35:AJ35"/>
     <mergeCell ref="AK35:AM35"/>
     <mergeCell ref="AN35:AO35"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="G35:I35"/>
-    <mergeCell ref="O29:Z29"/>
-    <mergeCell ref="AA29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="O49:Z49"/>
-    <mergeCell ref="AA49:AD49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="AN28:AO28"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="O50:Z50"/>
+    <mergeCell ref="O35:Z35"/>
+    <mergeCell ref="AA35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="O38:Z38"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="AE38:AF38"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:I28"/>
@@ -10051,7 +10144,19 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="AN49:AO49"/>
+    <mergeCell ref="O49:Z49"/>
+    <mergeCell ref="AA49:AD49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:N45"/>
+    <mergeCell ref="O45:Z45"/>
+    <mergeCell ref="AA45:AD45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="G29:I29"/>
@@ -10075,6 +10180,7 @@
     <mergeCell ref="AA51:AD51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="G50:I50"/>
     <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="AK49:AM49"/>
     <mergeCell ref="AN36:AO36"/>
@@ -10086,6 +10192,19 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="AN49:AO49"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="O50:Z50"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:N46"/>
     <mergeCell ref="AA52:AD52"/>
     <mergeCell ref="AE52:AF52"/>
     <mergeCell ref="AG52:AH52"/>
@@ -10104,6 +10223,12 @@
     <mergeCell ref="J51:N51"/>
     <mergeCell ref="O51:Z51"/>
     <mergeCell ref="B49:C49"/>
+    <mergeCell ref="O46:Z46"/>
+    <mergeCell ref="AA46:AD46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10120,10 +10245,10 @@
   <dimension ref="B1:AO32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="41" ySplit="3" topLeftCell="AP22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="41" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AP1" sqref="AP1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13:F13"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.95" customHeight="1"/>
@@ -10410,47 +10535,47 @@
       <c r="AO5" s="54"/>
     </row>
     <row r="6" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="29">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="31" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="31" t="s">
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="33"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="26"/>
       <c r="AE6" s="61"/>
       <c r="AF6" s="61"/>
       <c r="AG6" s="62"/>
@@ -10464,56 +10589,58 @@
       <c r="AO6" s="62"/>
     </row>
     <row r="7" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="29">
+      <c r="B7" s="32">
         <v>2</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="31" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="31" t="s">
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="33"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="26"/>
       <c r="AE7" s="37"/>
       <c r="AF7" s="38"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="28"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="31"/>
     </row>
     <row r="9" spans="2:41" ht="15.95" customHeight="1">
       <c r="B9" s="74" t="s">
@@ -10624,47 +10751,47 @@
       <c r="AO10" s="54"/>
     </row>
     <row r="11" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B11" s="29">
+      <c r="B11" s="32">
         <v>3</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="31" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="31" t="s">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="33"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="26"/>
       <c r="AE11" s="61"/>
       <c r="AF11" s="61"/>
       <c r="AG11" s="62"/>
@@ -10678,45 +10805,47 @@
       <c r="AO11" s="62"/>
     </row>
     <row r="12" spans="2:41" ht="15.75" customHeight="1">
-      <c r="B12" s="29">
+      <c r="B12" s="32">
         <v>4</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="31" t="s">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="31" t="s">
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="33"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="26"/>
       <c r="AE12" s="61"/>
       <c r="AF12" s="61"/>
       <c r="AG12" s="62"/>
@@ -10730,45 +10859,47 @@
       <c r="AO12" s="62"/>
     </row>
     <row r="13" spans="2:41" ht="24.95" customHeight="1">
-      <c r="B13" s="29">
+      <c r="B13" s="32">
         <v>5</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="31" t="s">
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="31" t="s">
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="33"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="26"/>
       <c r="AE13" s="61"/>
       <c r="AF13" s="61"/>
       <c r="AG13" s="62"/>
@@ -10782,45 +10913,47 @@
       <c r="AO13" s="62"/>
     </row>
     <row r="14" spans="2:41" ht="24.95" customHeight="1">
-      <c r="B14" s="29">
+      <c r="B14" s="32">
         <v>6</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="103"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="31" t="s">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="31" t="s">
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="33"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="26"/>
       <c r="AE14" s="61"/>
       <c r="AF14" s="61"/>
       <c r="AG14" s="62"/>
@@ -10834,45 +10967,47 @@
       <c r="AO14" s="62"/>
     </row>
     <row r="15" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B15" s="29">
+      <c r="B15" s="32">
         <v>7</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="31" t="s">
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="31" t="s">
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="33"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="26"/>
       <c r="AE15" s="61"/>
       <c r="AF15" s="61"/>
       <c r="AG15" s="62"/>
@@ -10886,45 +11021,47 @@
       <c r="AO15" s="62"/>
     </row>
     <row r="16" spans="2:41" ht="27" customHeight="1">
-      <c r="B16" s="29">
+      <c r="B16" s="32">
         <v>8</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="31" t="s">
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="31" t="s">
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="33"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="26"/>
       <c r="AE16" s="61"/>
       <c r="AF16" s="61"/>
       <c r="AG16" s="62"/>
@@ -10938,45 +11075,47 @@
       <c r="AO16" s="62"/>
     </row>
     <row r="17" spans="2:41" ht="27" customHeight="1">
-      <c r="B17" s="29">
+      <c r="B17" s="32">
         <v>9</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="35"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="31" t="s">
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="31" t="s">
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="33"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="26"/>
       <c r="AE17" s="61"/>
       <c r="AF17" s="61"/>
       <c r="AG17" s="62"/>
@@ -10990,45 +11129,47 @@
       <c r="AO17" s="62"/>
     </row>
     <row r="18" spans="2:41" ht="24" customHeight="1">
-      <c r="B18" s="29">
+      <c r="B18" s="32">
         <v>10</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="31" t="s">
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="31" t="s">
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="33"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="26"/>
       <c r="AE18" s="61"/>
       <c r="AF18" s="61"/>
       <c r="AG18" s="62"/>
@@ -11042,45 +11183,47 @@
       <c r="AO18" s="62"/>
     </row>
     <row r="19" spans="2:41" ht="24.75" customHeight="1">
-      <c r="B19" s="29">
+      <c r="B19" s="32">
         <v>11</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="31" t="s">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="31" t="s">
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="33"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="26"/>
       <c r="AE19" s="61"/>
       <c r="AF19" s="61"/>
       <c r="AG19" s="62"/>
@@ -11094,45 +11237,47 @@
       <c r="AO19" s="62"/>
     </row>
     <row r="20" spans="2:41" ht="27" customHeight="1">
-      <c r="B20" s="29">
+      <c r="B20" s="32">
         <v>12</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="31" t="s">
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="31" t="s">
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="33"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="26"/>
       <c r="AE20" s="61"/>
       <c r="AF20" s="61"/>
       <c r="AG20" s="62"/>
@@ -11146,45 +11291,47 @@
       <c r="AO20" s="62"/>
     </row>
     <row r="21" spans="2:41" ht="27" customHeight="1">
-      <c r="B21" s="29">
+      <c r="B21" s="32">
         <v>13</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="31" t="s">
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="31" t="s">
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="33"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="26"/>
       <c r="AE21" s="61"/>
       <c r="AF21" s="61"/>
       <c r="AG21" s="62"/>
@@ -11198,45 +11345,47 @@
       <c r="AO21" s="62"/>
     </row>
     <row r="22" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B22" s="29">
+      <c r="B22" s="32">
         <v>14</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="35"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="31" t="s">
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="31" t="s">
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="33"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="26"/>
       <c r="AE22" s="61"/>
       <c r="AF22" s="61"/>
       <c r="AG22" s="62"/>
@@ -11250,45 +11399,47 @@
       <c r="AO22" s="62"/>
     </row>
     <row r="23" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B23" s="29">
+      <c r="B23" s="32">
         <v>15</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="35"/>
       <c r="I23" s="36"/>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="31" t="s">
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="31" t="s">
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="33"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="26"/>
       <c r="AE23" s="61"/>
       <c r="AF23" s="61"/>
       <c r="AG23" s="62"/>
@@ -11302,45 +11453,47 @@
       <c r="AO23" s="62"/>
     </row>
     <row r="24" spans="2:41" ht="24.95" customHeight="1">
-      <c r="B24" s="29">
+      <c r="B24" s="32">
         <v>16</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="31" t="s">
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="31" t="s">
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="33"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="26"/>
       <c r="AE24" s="61"/>
       <c r="AF24" s="61"/>
       <c r="AG24" s="62"/>
@@ -11354,45 +11507,47 @@
       <c r="AO24" s="62"/>
     </row>
     <row r="25" spans="2:41" ht="24.95" customHeight="1">
-      <c r="B25" s="29">
+      <c r="B25" s="32">
         <v>17</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="35"/>
       <c r="I25" s="36"/>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="31" t="s">
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="31" t="s">
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="33"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="26"/>
       <c r="AE25" s="61"/>
       <c r="AF25" s="61"/>
       <c r="AG25" s="62"/>
@@ -11406,45 +11561,47 @@
       <c r="AO25" s="62"/>
     </row>
     <row r="26" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B26" s="29">
+      <c r="B26" s="32">
         <v>18</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="35"/>
       <c r="I26" s="36"/>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="31" t="s">
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="31" t="s">
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="33"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="26"/>
       <c r="AE26" s="61"/>
       <c r="AF26" s="61"/>
       <c r="AG26" s="62"/>
@@ -11458,45 +11615,47 @@
       <c r="AO26" s="62"/>
     </row>
     <row r="27" spans="2:41" ht="27" customHeight="1">
-      <c r="B27" s="29">
+      <c r="B27" s="32">
         <v>19</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="35"/>
       <c r="I27" s="36"/>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="31" t="s">
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="31" t="s">
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="33"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="26"/>
       <c r="AE27" s="61"/>
       <c r="AF27" s="61"/>
       <c r="AG27" s="62"/>
@@ -11510,45 +11669,47 @@
       <c r="AO27" s="62"/>
     </row>
     <row r="28" spans="2:41" ht="27" customHeight="1">
-      <c r="B28" s="29">
+      <c r="B28" s="32">
         <v>20</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H28" s="35"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="31" t="s">
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="31" t="s">
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="33"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="26"/>
       <c r="AE28" s="61"/>
       <c r="AF28" s="61"/>
       <c r="AG28" s="62"/>
@@ -11562,45 +11723,47 @@
       <c r="AO28" s="62"/>
     </row>
     <row r="29" spans="2:41" ht="24.75" customHeight="1">
-      <c r="B29" s="29">
+      <c r="B29" s="32">
         <v>21</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H29" s="35"/>
       <c r="I29" s="36"/>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="31" t="s">
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="31" t="s">
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="33"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="26"/>
       <c r="AE29" s="61"/>
       <c r="AF29" s="61"/>
       <c r="AG29" s="62"/>
@@ -11614,45 +11777,47 @@
       <c r="AO29" s="62"/>
     </row>
     <row r="30" spans="2:41" ht="24.75" customHeight="1">
-      <c r="B30" s="29">
+      <c r="B30" s="32">
         <v>22</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="31" t="s">
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="31" t="s">
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="33"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="26"/>
       <c r="AE30" s="61"/>
       <c r="AF30" s="61"/>
       <c r="AG30" s="62"/>
@@ -11666,45 +11831,47 @@
       <c r="AO30" s="62"/>
     </row>
     <row r="31" spans="2:41" ht="27" customHeight="1">
-      <c r="B31" s="29">
+      <c r="B31" s="32">
         <v>23</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H31" s="35"/>
       <c r="I31" s="36"/>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="31" t="s">
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="31" t="s">
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="33"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="26"/>
       <c r="AE31" s="61"/>
       <c r="AF31" s="61"/>
       <c r="AG31" s="62"/>
@@ -11718,45 +11885,47 @@
       <c r="AO31" s="62"/>
     </row>
     <row r="32" spans="2:41" ht="27" customHeight="1">
-      <c r="B32" s="29">
+      <c r="B32" s="32">
         <v>24</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H32" s="35"/>
       <c r="I32" s="36"/>
-      <c r="J32" s="31" t="s">
+      <c r="J32" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="31" t="s">
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="31" t="s">
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="33"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="26"/>
       <c r="AE32" s="61"/>
       <c r="AF32" s="61"/>
       <c r="AG32" s="62"/>
@@ -12091,7 +12260,7 @@
       <pane xSplit="41" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AP1" sqref="AP1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.95" customHeight="1"/>
@@ -12377,47 +12546,47 @@
       <c r="AO5" s="54"/>
     </row>
     <row r="6" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="29">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="31" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="31" t="s">
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="33"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="26"/>
       <c r="AE6" s="61"/>
       <c r="AF6" s="61"/>
       <c r="AG6" s="62"/>
@@ -12431,45 +12600,47 @@
       <c r="AO6" s="62"/>
     </row>
     <row r="7" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="29">
+      <c r="B7" s="32">
         <v>2</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="31" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="31" t="s">
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="33"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="26"/>
       <c r="AE7" s="61"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="62"/>
@@ -12591,47 +12762,47 @@
       <c r="AO10" s="54"/>
     </row>
     <row r="11" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B11" s="29">
+      <c r="B11" s="32">
         <v>3</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="31" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="31" t="s">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="33"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="26"/>
       <c r="AE11" s="61"/>
       <c r="AF11" s="61"/>
       <c r="AG11" s="62"/>
@@ -12645,45 +12816,47 @@
       <c r="AO11" s="62"/>
     </row>
     <row r="12" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B12" s="29">
+      <c r="B12" s="32">
         <v>4</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="31" t="s">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="31" t="s">
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="33"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="26"/>
       <c r="AE12" s="61"/>
       <c r="AF12" s="61"/>
       <c r="AG12" s="62"/>
@@ -12720,7 +12893,6 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:N11"/>
     <mergeCell ref="O11:Z11"/>
-    <mergeCell ref="AA6:AD6"/>
     <mergeCell ref="B9:AO9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
@@ -12733,9 +12905,6 @@
     <mergeCell ref="AI10:AJ10"/>
     <mergeCell ref="AK10:AM10"/>
     <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="AK6:AM6"/>
     <mergeCell ref="AN6:AO6"/>
@@ -12744,6 +12913,10 @@
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AI7:AJ7"/>
     <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="J5:N5"/>
@@ -12798,7 +12971,7 @@
       <pane xSplit="41" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AP1" sqref="AP1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.95" customHeight="1"/>
@@ -13084,47 +13257,47 @@
       <c r="AO5" s="54"/>
     </row>
     <row r="6" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="29">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="31" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="31" t="s">
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="33"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="26"/>
       <c r="AE6" s="61"/>
       <c r="AF6" s="61"/>
       <c r="AG6" s="62"/>
@@ -13138,45 +13311,47 @@
       <c r="AO6" s="62"/>
     </row>
     <row r="7" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="29">
+      <c r="B7" s="32">
         <v>2</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="31" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="31" t="s">
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="33"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="26"/>
       <c r="AE7" s="61"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="62"/>
@@ -13298,47 +13473,47 @@
       <c r="AO10" s="54"/>
     </row>
     <row r="11" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B11" s="29">
+      <c r="B11" s="32">
         <v>3</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="31" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="31" t="s">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="33"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="26"/>
       <c r="AE11" s="61"/>
       <c r="AF11" s="61"/>
       <c r="AG11" s="62"/>
@@ -13352,45 +13527,47 @@
       <c r="AO11" s="62"/>
     </row>
     <row r="12" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B12" s="29">
+      <c r="B12" s="32">
         <v>4</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="31" t="s">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="31" t="s">
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="33"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="26"/>
       <c r="AE12" s="61"/>
       <c r="AF12" s="61"/>
       <c r="AG12" s="62"/>
@@ -13452,6 +13629,10 @@
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AI7:AJ7"/>
     <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
     <mergeCell ref="B9:AO9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
@@ -13462,8 +13643,6 @@
     <mergeCell ref="AE10:AF10"/>
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AA12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="AK10:AM10"/>
     <mergeCell ref="AN10:AO10"/>
     <mergeCell ref="B11:C11"/>
@@ -13474,18 +13653,16 @@
     <mergeCell ref="AA11:AD11"/>
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="AN11:AO11"/>
     <mergeCell ref="O12:Z12"/>
     <mergeCell ref="AG12:AH12"/>
     <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="AK12:AM12"/>
     <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13505,7 +13682,7 @@
       <pane xSplit="41" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AP1" sqref="AP1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.95" customHeight="1"/>
@@ -13791,47 +13968,47 @@
       <c r="AO5" s="54"/>
     </row>
     <row r="6" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="29">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="31" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="31" t="s">
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="33"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="26"/>
       <c r="AE6" s="61"/>
       <c r="AF6" s="61"/>
       <c r="AG6" s="62"/>
@@ -13845,45 +14022,47 @@
       <c r="AO6" s="62"/>
     </row>
     <row r="7" spans="2:41" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="29">
+      <c r="B7" s="32">
         <v>2</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="31" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="31" t="s">
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="33"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="26"/>
       <c r="AE7" s="61"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="62"/>
@@ -14005,47 +14184,47 @@
       <c r="AO10" s="54"/>
     </row>
     <row r="11" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B11" s="29">
+      <c r="B11" s="32">
         <v>3</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="31" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="31" t="s">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="33"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="26"/>
       <c r="AE11" s="61"/>
       <c r="AF11" s="61"/>
       <c r="AG11" s="62"/>
@@ -14059,45 +14238,47 @@
       <c r="AO11" s="62"/>
     </row>
     <row r="12" spans="2:41" ht="15.95" customHeight="1">
-      <c r="B12" s="29">
+      <c r="B12" s="32">
         <v>4</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="31" t="s">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="31" t="s">
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="33"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="26"/>
       <c r="AE12" s="61"/>
       <c r="AF12" s="61"/>
       <c r="AG12" s="62"/>
@@ -14159,6 +14340,10 @@
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AI7:AJ7"/>
     <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
     <mergeCell ref="B9:AO9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
@@ -14169,8 +14354,6 @@
     <mergeCell ref="AE10:AF10"/>
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AA12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="AK10:AM10"/>
     <mergeCell ref="AN10:AO10"/>
     <mergeCell ref="B11:C11"/>
@@ -14181,18 +14364,16 @@
     <mergeCell ref="AA11:AD11"/>
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="AN11:AO11"/>
     <mergeCell ref="O12:Z12"/>
     <mergeCell ref="AG12:AH12"/>
     <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="AK12:AM12"/>
     <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
